--- a/logt.xlsx
+++ b/logt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>FECHA</t>
   </si>
@@ -53,6 +53,11 @@
     <t>Clase paciente
 Clase VectorHeap
 Clase PriorityQueue</t>
+  </si>
+  <si>
+    <t>clase principal
+clase texto
+REVISION CLASES</t>
   </si>
 </sst>
 </file>
@@ -412,7 +417,7 @@
   <dimension ref="A3:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A5:G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +471,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42584</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>145</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
